--- a/立项准备/宅斗v1.0系统需求.xlsx
+++ b/立项准备/宅斗v1.0系统需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="上线版本内容" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
   <si>
     <t>版本号</t>
   </si>
@@ -56,6 +56,12 @@
     <t>道具系统</t>
   </si>
   <si>
+    <t>道具使用</t>
+  </si>
+  <si>
+    <t>道具合成</t>
+  </si>
+  <si>
     <t>卡牌系统文档</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
   </si>
   <si>
     <t>玩家信息</t>
+  </si>
+  <si>
+    <t>改名</t>
   </si>
   <si>
     <t>音效设置</t>
@@ -490,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -512,9 +521,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,7 +565,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,22 +595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,9 +610,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +620,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,60 +664,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -677,13 +686,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,174 +866,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -886,11 +895,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,50 +941,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,6 +974,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -991,10 +1026,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,137 +1038,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,23 +1187,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1489,10 +1518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1524,36 +1553,36 @@
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1563,436 +1592,455 @@
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>27</v>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="C28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="F33" s="8"/>
+      <c r="C33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="6"/>
+      <c r="C34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:6">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="6"/>
+      <c r="C35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="C36" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="6"/>
+      <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="D39" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="6" t="s">
-        <v>65</v>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="6" t="s">
-        <v>66</v>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="6" t="s">
-        <v>67</v>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="6" t="s">
-        <v>68</v>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="6"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="10" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B49"/>
+  <mergeCells count="27">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C39:C45"/>
     <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2004,7 +2052,7 @@
   <sheetPr/>
   <dimension ref="B2:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -2020,13 +2068,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -2034,13 +2082,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2048,17 +2096,17 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2066,7 +2114,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -2074,7 +2122,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -2082,7 +2130,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2090,14 +2138,14 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -2108,17 +2156,17 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -2127,7 +2175,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -2136,7 +2184,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -2145,7 +2193,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -2154,7 +2202,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -2163,7 +2211,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -2172,7 +2220,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -2181,7 +2229,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -2190,7 +2238,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -2198,13 +2246,13 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -2212,7 +2260,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -2220,7 +2268,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -2228,7 +2276,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -2236,7 +2284,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -2244,7 +2292,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -2252,7 +2300,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -2260,7 +2308,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -2268,7 +2316,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -2276,7 +2324,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -2284,17 +2332,17 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -2302,7 +2350,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -2310,17 +2358,17 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2328,17 +2376,17 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2346,7 +2394,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -2486,110 +2534,110 @@
     </row>
     <row r="66" spans="3:5">
       <c r="C66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="3"/>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="4:5">
       <c r="D68" s="3"/>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="D69" s="3"/>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="4:5">
       <c r="D70" s="3"/>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="4:5">
       <c r="D71" s="3"/>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" s="3"/>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="4:5">
       <c r="D73" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="4:5">
       <c r="D74" s="3"/>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="4:5">
       <c r="D75" s="3"/>
       <c r="E75" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="4:5">
       <c r="D76" s="3"/>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="4:5">
       <c r="D77" s="3"/>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="4:5">
       <c r="D78" s="3"/>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="4:5">
       <c r="D79" s="3"/>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="4:5">
       <c r="D80" s="3"/>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="4:5">
       <c r="D81" s="3"/>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="4:5">
       <c r="D82" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2598,61 +2646,61 @@
     <row r="83" spans="4:5">
       <c r="D83" s="3"/>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="4:5">
       <c r="D84" s="3"/>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="4:5">
       <c r="D85" s="3"/>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="4:5">
       <c r="D86" s="3"/>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="4:5">
       <c r="D87" s="3"/>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="4:5">
       <c r="D88" s="3"/>
       <c r="E88" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="4:5">
       <c r="D89" s="3"/>
       <c r="E89" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="4:5">
       <c r="D90" s="3"/>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="4:5">
       <c r="D91" s="3"/>
       <c r="E91" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="4:5">
       <c r="D92" s="3"/>
       <c r="E92" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/立项准备/宅斗v1.0系统需求.xlsx
+++ b/立项准备/宅斗v1.0系统需求.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>版本号</t>
   </si>
@@ -138,6 +138,27 @@
   </si>
   <si>
     <t>书院系统</t>
+  </si>
+  <si>
+    <t>登录界面</t>
+  </si>
+  <si>
+    <t>账号登录</t>
+  </si>
+  <si>
+    <t>服务器选择</t>
+  </si>
+  <si>
+    <t>角色创建</t>
+  </si>
+  <si>
+    <t>头像选择</t>
+  </si>
+  <si>
+    <t>名字输入</t>
+  </si>
+  <si>
+    <t>随机名字</t>
   </si>
   <si>
     <t>v0.5</t>
@@ -499,10 +520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -522,14 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +558,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,31 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,10 +619,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,9 +634,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,23 +680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,31 +707,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,158 +891,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -921,26 +942,22 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,6 +1001,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1026,10 +1058,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,137 +1070,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,6 +1220,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1739,10 +1780,10 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1751,124 +1792,122 @@
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="5" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:4">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5"/>
@@ -1879,65 +1918,71 @@
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>63</v>
-      </c>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="5"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="C40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="C41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="C42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D44" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1945,33 +1990,31 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1979,68 +2022,112 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="9"/>
+      <c r="C51" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="5"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A39:A49"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A55:A56"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2068,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -2082,13 +2169,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2096,17 +2183,17 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2114,7 +2201,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -2122,7 +2209,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -2130,7 +2217,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -2138,14 +2225,14 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -2156,7 +2243,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -2166,7 +2253,7 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -2175,7 +2262,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K13" s="3"/>
     </row>
@@ -2184,7 +2271,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -2193,7 +2280,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -2202,7 +2289,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K16" s="3"/>
     </row>
@@ -2211,7 +2298,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -2220,7 +2307,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -2229,7 +2316,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K19" s="3"/>
     </row>
@@ -2238,7 +2325,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -2246,13 +2333,13 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -2260,7 +2347,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -2268,7 +2355,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -2276,7 +2363,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -2284,7 +2371,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -2292,7 +2379,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -2300,7 +2387,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -2308,7 +2395,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -2316,7 +2403,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -2324,7 +2411,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -2332,17 +2419,17 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -2350,7 +2437,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -2358,17 +2445,17 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2376,17 +2463,17 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2394,7 +2481,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -2534,110 +2621,110 @@
     </row>
     <row r="66" spans="3:5">
       <c r="C66" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="3"/>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="4:5">
       <c r="D68" s="3"/>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="D69" s="3"/>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="4:5">
       <c r="D70" s="3"/>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="4:5">
       <c r="D71" s="3"/>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" s="3"/>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="4:5">
       <c r="D73" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="4:5">
       <c r="D74" s="3"/>
       <c r="E74" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="4:5">
       <c r="D75" s="3"/>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="4:5">
       <c r="D76" s="3"/>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="4:5">
       <c r="D77" s="3"/>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="4:5">
       <c r="D78" s="3"/>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="4:5">
       <c r="D79" s="3"/>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="4:5">
       <c r="D80" s="3"/>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="4:5">
       <c r="D81" s="3"/>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="4:5">
       <c r="D82" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2646,61 +2733,61 @@
     <row r="83" spans="4:5">
       <c r="D83" s="3"/>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="4:5">
       <c r="D84" s="3"/>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="4:5">
       <c r="D85" s="3"/>
       <c r="E85" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="4:5">
       <c r="D86" s="3"/>
       <c r="E86" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="4:5">
       <c r="D87" s="3"/>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="4:5">
       <c r="D88" s="3"/>
       <c r="E88" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="4:5">
       <c r="D89" s="3"/>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="4:5">
       <c r="D90" s="3"/>
       <c r="E90" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="4:5">
       <c r="D91" s="3"/>
       <c r="E91" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="4:5">
       <c r="D92" s="3"/>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/立项准备/宅斗v1.0系统需求.xlsx
+++ b/立项准备/宅斗v1.0系统需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="上线版本内容" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,9 @@
     <t>我的房间</t>
   </si>
   <si>
+    <t>玩家升级</t>
+  </si>
+  <si>
     <t>玩家换装</t>
   </si>
   <si>
@@ -303,9 +306,6 @@
   </si>
   <si>
     <t>主界面布局</t>
-  </si>
-  <si>
-    <t>玩家升级</t>
   </si>
   <si>
     <t>玩家属性规划</t>
@@ -520,8 +520,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -542,82 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -634,6 +558,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -641,8 +617,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +633,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,15 +672,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,25 +707,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,19 +821,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,49 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,72 +882,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,41 +962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,26 +992,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,6 +1035,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1058,10 +1058,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,133 +1070,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1228,10 +1228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1559,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1620,7 +1620,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1630,17 +1630,17 @@
     <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1648,17 +1648,17 @@
     <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1696,23 +1696,23 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1742,23 +1742,23 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
@@ -1780,57 +1780,57 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="8" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
       <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
       <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="5" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
       <c r="D28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1844,20 +1844,20 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
         <v>51</v>
       </c>
@@ -1872,20 +1872,20 @@
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
         <v>56</v>
       </c>
@@ -1897,14 +1897,14 @@
       <c r="C35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D36" s="5" t="s">
         <v>59</v>
       </c>
@@ -1912,31 +1912,30 @@
     <row r="37" spans="1:4">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5"/>
@@ -1947,13 +1946,14 @@
       <c r="D40" s="5"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:6">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="5"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5"/>
@@ -1972,23 +1972,23 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
         <v>73</v>
       </c>
@@ -2036,10 +2036,10 @@
     <row r="51" spans="1:4">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5"/>
@@ -2055,79 +2055,88 @@
       <c r="C53" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D54" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="5" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="B56" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="B55:B56"/>
+  <mergeCells count="30">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C45:C51"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2155,13 +2164,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -2169,13 +2178,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2183,14 +2192,14 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>97</v>
@@ -2250,7 +2259,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>104</v>
